--- a/output/MOMENTUM/rebalance/rebalance_20241231.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20241231.xlsx
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02830732515389902</v>
+        <v>0.02830759762239313</v>
       </c>
       <c r="C4" t="n">
         <v>0.02106063011772178</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.007246695036177243</v>
+        <v>-0.007246967504671357</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02538283132227859</v>
+        <v>0.02538308233652706</v>
       </c>
       <c r="C11" t="n">
         <v>0.02065234649669971</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00473048482557888</v>
+        <v>-0.00473073583982735</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02303985323767463</v>
+        <v>0.02303911077006577</v>
       </c>
       <c r="C13" t="n">
         <v>0.0204935695329689</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.002546283704705731</v>
+        <v>-0.002545541237096865</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02871916101877789</v>
+        <v>0.0287181511580451</v>
       </c>
       <c r="C27" t="n">
         <v>0.02002857985347154</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.008690581165306348</v>
+        <v>-0.008689571304573554</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6831,13 +6831,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02490380788072201</v>
+        <v>0.02490364033845176</v>
       </c>
       <c r="C29" t="n">
         <v>0.01997187379499626</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.004931934085725752</v>
+        <v>-0.004931766543455503</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02501609018604206</v>
+        <v>0.02501545766431417</v>
       </c>
       <c r="C32" t="n">
         <v>0.01984712046635062</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.005168969719691437</v>
+        <v>-0.005168337197963543</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6936,13 +6936,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02165137640638842</v>
+        <v>0.0216515490639581</v>
       </c>
       <c r="C34" t="n">
         <v>0.01977907319618028</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.001872303210208141</v>
+        <v>-0.00187247586777782</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -7041,13 +7041,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02250002258106829</v>
+        <v>0.02250003138524681</v>
       </c>
       <c r="C39" t="n">
         <v>0.01943316623948102</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.003066856341587262</v>
+        <v>-0.003066865145765787</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02337100077120739</v>
+        <v>0.0233710841769791</v>
       </c>
       <c r="C40" t="n">
         <v>0.01941615442193844</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.003954846349268945</v>
+        <v>-0.003954929755040658</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7293,13 +7293,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01965544305681153</v>
+        <v>0.01965546620901185</v>
       </c>
       <c r="C51" t="n">
         <v>0.01892848231905097</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0007269607377605597</v>
+        <v>-0.0007269838899608867</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01912601979671718</v>
+        <v>0.01912621625055662</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01912601979671718</v>
+        <v>-0.01912621625055662</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01902286306367084</v>
+        <v>0.01902311211013451</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01902286306367084</v>
+        <v>-0.01902311211013451</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01891331549385077</v>
+        <v>0.01891339029274258</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01891331549385077</v>
+        <v>-0.01891339029274258</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01769414644087342</v>
+        <v>0.01769423367843334</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01769414644087342</v>
+        <v>-0.01769423367843334</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01836686332348136</v>
+        <v>0.01836687937386063</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01836686332348136</v>
+        <v>-0.01836687937386063</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01877333537547761</v>
+        <v>0.01877351173113521</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01877333537547761</v>
+        <v>-0.01877351173113521</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01796493258749365</v>
+        <v>0.01796494115197114</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01796493258749365</v>
+        <v>-0.01796494115197114</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0187004699555365</v>
+        <v>0.01870044544607232</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.0187004699555365</v>
+        <v>-0.01870044544607232</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01653746878494369</v>
+        <v>0.01653739742777094</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01653746878494369</v>
+        <v>-0.01653739742777094</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01731780078510635</v>
+        <v>0.01731796002137695</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01731780078510635</v>
+        <v>-0.01731796002137695</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01862409426998818</v>
+        <v>0.01862416687853719</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01862409426998818</v>
+        <v>-0.01862416687853719</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02174173490437114</v>
+        <v>0.02174188022932213</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02174173490437114</v>
+        <v>-0.02174188022932213</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02012748460065611</v>
+        <v>0.02012721355662711</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02012748460065611</v>
+        <v>-0.02012721355662711</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01957138781190329</v>
+        <v>0.01957144401015844</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01957138781190329</v>
+        <v>-0.01957144401015844</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01554289960022612</v>
+        <v>0.01554300349125103</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01554289960022612</v>
+        <v>-0.01554300349125103</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01575535439613512</v>
+        <v>0.01575539784369619</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01575535439613512</v>
+        <v>-0.01575539784369619</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01800489876389607</v>
+        <v>0.01800483834833598</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01800489876389607</v>
+        <v>-0.01800483834833598</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01846623528672732</v>
+        <v>0.01846614601502467</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01846623528672732</v>
+        <v>-0.01846614601502467</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01697565676010218</v>
+        <v>0.01697580372205982</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01697565676010218</v>
+        <v>-0.01697580372205982</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01932088508925804</v>
+        <v>0.01932099611575651</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01932088508925804</v>
+        <v>-0.01932099611575651</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02079908521197536</v>
+        <v>0.02079928882061854</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02079908521197536</v>
+        <v>-0.02079928882061854</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01832796406093638</v>
+        <v>0.01832810867976469</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01832796406093638</v>
+        <v>-0.01832810867976469</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01852553254813396</v>
+        <v>0.01852570828394852</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01852553254813396</v>
+        <v>-0.01852570828394852</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.02393972533318373</v>
+        <v>0.02393886480288491</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.02393972533318373</v>
+        <v>-0.02393886480288491</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01819934167275726</v>
+        <v>0.01819937932312878</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01819934167275726</v>
+        <v>-0.01819937932312878</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01954281718886268</v>
+        <v>0.01954286494207035</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01954281718886268</v>
+        <v>-0.01954286494207035</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02087537051802349</v>
+        <v>0.02087527185302284</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02087537051802349</v>
+        <v>-0.02087527185302284</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01825413892957378</v>
+        <v>0.01825429868969025</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01825413892957378</v>
+        <v>-0.01825429868969025</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02013688492878412</v>
+        <v>0.0201365455368522</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.02013688492878412</v>
+        <v>-0.0201365455368522</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01965796545004132</v>
+        <v>0.01965809684677107</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01965796545004132</v>
+        <v>-0.01965809684677107</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02155545650336066</v>
+        <v>0.02155523037001991</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02155545650336066</v>
+        <v>-0.02155523037001991</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02049002585189177</v>
+        <v>0.0204901628102355</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.02049002585189177</v>
+        <v>-0.0204901628102355</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02035489028203596</v>
+        <v>0.02035518943006982</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.02035489028203596</v>
+        <v>-0.02035518943006982</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01725604290273577</v>
+        <v>0.01725597640600163</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01725604290273577</v>
+        <v>-0.01725597640600163</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01858362023856061</v>
+        <v>0.01858366934725203</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01858362023856061</v>
+        <v>-0.01858366934725203</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01802109408531176</v>
+        <v>0.01802114538653742</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01802109408531176</v>
+        <v>-0.01802114538653742</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02059511858018529</v>
+        <v>0.02059531154845513</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.02059511858018529</v>
+        <v>-0.02059531154845513</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8091,13 +8091,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01845047940808644</v>
+        <v>0.01845051735610147</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01845047940808644</v>
+        <v>-0.01845051735610147</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02018263179182785</v>
+        <v>0.02018295532490462</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.02018263179182785</v>
+        <v>-0.02018295532490462</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01715705580844697</v>
+        <v>0.01715726582185413</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01715705580844697</v>
+        <v>-0.01715726582185413</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20241231.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20241231.xlsx
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02830759762239313</v>
+        <v>0.02832101329207674</v>
       </c>
       <c r="C4" t="n">
         <v>0.02106063011772178</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.007246967504671357</v>
+        <v>-0.007260383174354967</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02538308233652706</v>
+        <v>0.02539510530791984</v>
       </c>
       <c r="C11" t="n">
         <v>0.02065234649669971</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00473073583982735</v>
+        <v>-0.004742758811220132</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02303911077006577</v>
+        <v>0.02305099426541205</v>
       </c>
       <c r="C13" t="n">
         <v>0.0204935695329689</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.002545541237096865</v>
+        <v>-0.00255742473244315</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0287181511580451</v>
+        <v>0.0287330483020954</v>
       </c>
       <c r="C27" t="n">
         <v>0.02002857985347154</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.008689571304573554</v>
+        <v>-0.00870446844862386</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6831,13 +6831,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02490364033845176</v>
+        <v>0.0249158502323596</v>
       </c>
       <c r="C29" t="n">
         <v>0.01997187379499626</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.004931766543455503</v>
+        <v>-0.004943976437363339</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02501545766431417</v>
+        <v>0.0250281868323084</v>
       </c>
       <c r="C32" t="n">
         <v>0.01984712046635062</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.005168337197963543</v>
+        <v>-0.00518106636595778</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6936,13 +6936,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0216515490639581</v>
+        <v>0.02166184602972363</v>
       </c>
       <c r="C34" t="n">
         <v>0.01977907319618028</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.00187247586777782</v>
+        <v>-0.00188277283354335</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -7041,13 +7041,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02250003138524681</v>
+        <v>0.02251090257119159</v>
       </c>
       <c r="C39" t="n">
         <v>0.01943316623948102</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.003066865145765787</v>
+        <v>-0.00307773633171057</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0233710841769791</v>
+        <v>0.02338230192686828</v>
       </c>
       <c r="C40" t="n">
         <v>0.01941615442193844</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.003954929755040658</v>
+        <v>-0.003966147504929844</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7293,13 +7293,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01965546620901185</v>
+        <v>0.01966494753733179</v>
       </c>
       <c r="C51" t="n">
         <v>0.01892848231905097</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0007269838899608867</v>
+        <v>-0.0007364652182808226</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01912621625055662</v>
+        <v>0.01913526827216812</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01912621625055662</v>
+        <v>-0.01913526827216812</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01902311211013451</v>
+        <v>0.01903206165720576</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01902311211013451</v>
+        <v>-0.01903206165720576</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01891339029274258</v>
+        <v>0.01892246111515096</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01891339029274258</v>
+        <v>-0.01892246111515096</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01769423367843334</v>
+        <v>0.0177027025273317</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01769423367843334</v>
+        <v>-0.0177027025273317</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01836687937386063</v>
+        <v>0.01837574470530378</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01836687937386063</v>
+        <v>-0.01837574470530378</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01877351173113521</v>
+        <v>0.01878241330874326</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01877351173113521</v>
+        <v>-0.01878241330874326</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01796494115197114</v>
+        <v>0.01797361961384722</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01796494115197114</v>
+        <v>-0.01797361961384722</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01870044544607232</v>
+        <v>0.01870951265439088</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01870044544607232</v>
+        <v>-0.01870951265439088</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01653739742777094</v>
+        <v>0.01654546555456454</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01653739742777094</v>
+        <v>-0.01654546555456454</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01731796002137695</v>
+        <v>0.01732617488787981</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01731796002137695</v>
+        <v>-0.01732617488787981</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01862416687853719</v>
+        <v>0.01863310003702609</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01862416687853719</v>
+        <v>-0.01863310003702609</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02174188022932213</v>
+        <v>0.02175224822097652</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02174188022932213</v>
+        <v>-0.02175224822097652</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02012721355662711</v>
+        <v>0.02013721733905106</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02012721355662711</v>
+        <v>-0.02013721733905106</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01957144401015844</v>
+        <v>0.01958085164712059</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01957144401015844</v>
+        <v>-0.01958085164712059</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01554300349125103</v>
+        <v>0.01555041544131154</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01554300349125103</v>
+        <v>-0.01555041544131154</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01575539784369619</v>
+        <v>0.01576297297072106</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01575539784369619</v>
+        <v>-0.01576297297072106</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01800483834833598</v>
+        <v>0.01801360511607934</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01800483834833598</v>
+        <v>-0.01801360511607934</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01846614601502467</v>
+        <v>0.01847516472032278</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01846614601502467</v>
+        <v>-0.01847516472032278</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01697580372205982</v>
+        <v>0.01698386541754779</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01697580372205982</v>
+        <v>-0.01698386541754779</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01932099611575651</v>
+        <v>0.01933022779272366</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01932099611575651</v>
+        <v>-0.01933022779272366</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.02079928882061854</v>
+        <v>0.0208091427059563</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02079928882061854</v>
+        <v>-0.0208091427059563</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01832810867976469</v>
+        <v>0.01833682663284024</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01832810867976469</v>
+        <v>-0.01833682663284024</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01852570828394852</v>
+        <v>0.0185344906551948</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01852570828394852</v>
+        <v>-0.0185344906551948</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.02393886480288491</v>
+        <v>0.0239513014982405</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.02393886480288491</v>
+        <v>-0.0239513014982405</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01819937932312878</v>
+        <v>0.01820814204870963</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01819937932312878</v>
+        <v>-0.01820814204870963</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01954286494207035</v>
+        <v>0.01955226720862289</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01954286494207035</v>
+        <v>-0.01955226720862289</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02087527185302284</v>
+        <v>0.02088546490011746</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02087527185302284</v>
+        <v>-0.02088546490011746</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01825429868969025</v>
+        <v>0.01826296580299346</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01825429868969025</v>
+        <v>-0.01826296580299346</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0201365455368522</v>
+        <v>0.02014662221275128</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.0201365455368522</v>
+        <v>-0.02014662221275128</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01965809684677107</v>
+        <v>0.01966747115027652</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01965809684677107</v>
+        <v>-0.01966747115027652</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02155523037001991</v>
+        <v>0.02156587974418253</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02155523037001991</v>
+        <v>-0.02156587974418253</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0204901628102355</v>
+        <v>0.02049993389878779</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.0204901628102355</v>
+        <v>-0.02049993389878779</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02035518943006982</v>
+        <v>0.02036473298350132</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.02035518943006982</v>
+        <v>-0.02036473298350132</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01725597640600163</v>
+        <v>0.0172643871421992</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01725597640600163</v>
+        <v>-0.0172643871421992</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01858366934725203</v>
+        <v>0.01859260643419319</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01858366934725203</v>
+        <v>-0.01859260643419319</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01802114538653742</v>
+        <v>0.0180298082688177</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01802114538653742</v>
+        <v>-0.0180298082688177</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.02059531154845513</v>
+        <v>0.02060507744515679</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.02059531154845513</v>
+        <v>-0.02060507744515679</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8091,13 +8091,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01845051735610147</v>
+        <v>0.01845940122285383</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01845051735610147</v>
+        <v>-0.01845940122285383</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02018295532490462</v>
+        <v>0.01970883656560826</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.02018295532490462</v>
+        <v>-0.01970883656560826</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01715726582185413</v>
+        <v>0.01716535218224252</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01715726582185413</v>
+        <v>-0.01716535218224252</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
